--- a/featuresExtraction/featuresMatrix.xlsx
+++ b/featuresExtraction/featuresMatrix.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliacorniani/Desktop/Universita/BCI/data_students/qEEG_feature_set-master/IBI_features/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliacorniani/Documents/GitHub/BCI-ThoughtRecognition1/featuresExtraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14080" windowHeight="16140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="composizione Matrice" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="63">
   <si>
     <t>RangeFeatures</t>
   </si>
@@ -161,12 +162,69 @@
   <si>
     <t>UN UNICO VALORE CALCOLATO SU 4 CANALI SIMMETRICI</t>
   </si>
+  <si>
+    <t>Range Mean</t>
+  </si>
+  <si>
+    <t>13:30 Hz</t>
+  </si>
+  <si>
+    <t>Range Median</t>
+  </si>
+  <si>
+    <t>Range Lower Margin</t>
+  </si>
+  <si>
+    <t>Range Upper Margin</t>
+  </si>
+  <si>
+    <t>Range Width</t>
+  </si>
+  <si>
+    <t>Range SD</t>
+  </si>
+  <si>
+    <t>Range CV</t>
+  </si>
+  <si>
+    <t>Range Assimetry</t>
+  </si>
+  <si>
+    <t>Amplitude Power</t>
+  </si>
+  <si>
+    <t>Amplitude SD</t>
+  </si>
+  <si>
+    <t>Envelope Mean</t>
+  </si>
+  <si>
+    <t>Envelope SD</t>
+  </si>
+  <si>
+    <t>Relative power</t>
+  </si>
+  <si>
+    <t>Coherence Mean</t>
+  </si>
+  <si>
+    <t>Coherence Max</t>
+  </si>
+  <si>
+    <t>Edge Frequency</t>
+  </si>
+  <si>
+    <t>0,5:30 Hz</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +267,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="24">
@@ -606,7 +670,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -620,8 +684,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -692,20 +880,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="137">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -983,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34:E34"/>
     </sheetView>
   </sheetViews>
@@ -1658,13 +1977,5989 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX386"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:D83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="1">A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f>A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" ref="A131:A194" si="2">A130+1</f>
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>61</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>60</v>
+      </c>
+      <c r="C148" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C150" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C154" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B155" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B159" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C161" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C162" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C164" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C167" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C169" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C172" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C173" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C175" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C176" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C178" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C179" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C181" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C182" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C186" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C187" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C188" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" ref="A195:A258" si="3">A194+1</f>
+        <v>194</v>
+      </c>
+      <c r="B195" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C200" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C202" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C203" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C205" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C206" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C208" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B209" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C209" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B210" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C210" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B211" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C211" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C212" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C214" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="B215" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C216" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="B217" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C217" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="B218" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="B219" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C219" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="B220" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C220" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D220" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="B221" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C221" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D221" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="B222" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C222" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D222" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="B223" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C223" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="B224" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C224" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D224" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="B225" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C225" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="B226" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C226" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="B227" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C227" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="B228" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C228" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D228" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="B229" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C229" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="B230" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C230" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="B231" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="B232" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C232" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D232" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="B233" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D233" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="B234" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="B235" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="B236" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C236" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="B237" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D237" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="B238" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C238" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="B239" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C239" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
+      <c r="B240" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C240" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="B241" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C241" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="B242" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C242" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D242" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="B243" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C243" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D243" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="B244" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C244" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="B245" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C245" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="B246" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C246" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="B247" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C247" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
+      <c r="B248" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C248" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+      <c r="B249" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C249" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="B250" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C250" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="B251" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C251" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="B252" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C252" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="B253" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C253" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="B254" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C254" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="B255" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C255" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="B256" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C256" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="B257" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C257" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D257" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="B258" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C258" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <f t="shared" ref="A259:A322" si="4">A258+1</f>
+        <v>258</v>
+      </c>
+      <c r="B259" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C259" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="B260" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C260" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B261" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C261" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D261" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="B262" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C262" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D262" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="B263" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C263" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="B264" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C264" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="B265" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C265" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D265" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="B266" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C266" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="B267" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C267" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D267" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="B268" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="B269" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D269" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="B270" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B271" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C271" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="B272" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C272" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D272" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="B273" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C273" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D273" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="B274" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C274" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D274" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="B275" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C275" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D275" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="B276" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C276" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D276" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="B277" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C277" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="B278" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C278" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="B279" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D279" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="B280" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C280" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D280" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B281" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D281" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="B282" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C282" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="B283" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C283" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="B284" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C284" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="B285" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C285" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D285" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="B286" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C286" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D286" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="B287" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C287" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="B288" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C288" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D288" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="B289" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C289" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D289" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="B290" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C290" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D290" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="B291" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C291" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D291" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="B292" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C292" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D292" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <f>A292+1</f>
+        <v>292</v>
+      </c>
+      <c r="B293" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C293" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D293" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="B294" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C294" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D294" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="B295" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C295" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D295" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="B296" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C296" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D296" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+      <c r="B297" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C297" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D297" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="B298" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C298" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D298" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="B299" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C299" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D299" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="B300" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C300" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="B301" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C301" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="B302" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C302" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D302" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="B303" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C303" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D303" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="B304" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C304" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="B305" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C305" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D305" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="B306" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C306" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D306" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="B307" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C307" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D307" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="B308" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C308" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D308" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="B309" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C309" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D309" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="B310" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C310" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D310" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="B311" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C311" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D311" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="B312" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C312" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D312" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="B313" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C313" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D313" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="B314" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C314" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D314" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="B315" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C315" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D315" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="B316" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C316" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+      <c r="B317" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C317" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D317" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <f t="shared" si="4"/>
+        <v>317</v>
+      </c>
+      <c r="B318" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C318" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D318" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <f t="shared" si="4"/>
+        <v>318</v>
+      </c>
+      <c r="B319" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C319" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D319" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <f t="shared" si="4"/>
+        <v>319</v>
+      </c>
+      <c r="B320" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C320" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D320" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="B321" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C321" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D321" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <f t="shared" si="4"/>
+        <v>321</v>
+      </c>
+      <c r="B322" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C322" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D322" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <f t="shared" ref="A323:A386" si="5">A322+1</f>
+        <v>322</v>
+      </c>
+      <c r="B323" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C323" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D323" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <f t="shared" si="5"/>
+        <v>323</v>
+      </c>
+      <c r="B324" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C324" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D324" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+      <c r="B325" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C325" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D325" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+      <c r="B326" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C326" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D326" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+      <c r="B327" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C327" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D327" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+      <c r="B328" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C328" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D328" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <f t="shared" si="5"/>
+        <v>328</v>
+      </c>
+      <c r="B329" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C329" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D329" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+      <c r="B330" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C330" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D330" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="B331" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C331" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D331" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+      <c r="B332" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C332" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D332" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <f t="shared" si="5"/>
+        <v>332</v>
+      </c>
+      <c r="B333" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C333" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D333" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <f t="shared" si="5"/>
+        <v>333</v>
+      </c>
+      <c r="B334" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C334" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D334" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="B335" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C335" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D335" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="B336" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C336" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D336" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="B337" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C337" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D337" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+      <c r="B338" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C338" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D338" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <f t="shared" si="5"/>
+        <v>338</v>
+      </c>
+      <c r="B339" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C339" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D339" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <f t="shared" si="5"/>
+        <v>339</v>
+      </c>
+      <c r="B340" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C340" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D340" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="B341" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C341" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D341" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <f t="shared" si="5"/>
+        <v>341</v>
+      </c>
+      <c r="B342" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D342" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="B343" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C343" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="B344" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C344" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D344" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+      <c r="B345" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C345" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D345" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <f t="shared" si="5"/>
+        <v>345</v>
+      </c>
+      <c r="B346" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C346" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D346" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+      <c r="B347" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C347" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D347" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <f t="shared" si="5"/>
+        <v>347</v>
+      </c>
+      <c r="B348" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C348" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D348" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+      <c r="B349" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C349" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D349" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <f t="shared" si="5"/>
+        <v>349</v>
+      </c>
+      <c r="B350" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C350" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D350" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="B351" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C351" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D351" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+      <c r="B352" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C352" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D352" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+      <c r="B353" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C353" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D353" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <f t="shared" si="5"/>
+        <v>353</v>
+      </c>
+      <c r="B354" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C354" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D354" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="B355" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C355" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D355" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <f t="shared" si="5"/>
+        <v>355</v>
+      </c>
+      <c r="B356" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C356" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D356" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <f t="shared" si="5"/>
+        <v>356</v>
+      </c>
+      <c r="B357" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C357" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+      <c r="B358" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C358" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D358" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="B359" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C359" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D359" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+      <c r="B360" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C360" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D360" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="B361" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C361" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D361" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="B362" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C362" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D362" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="B363" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C363" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D363" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="B364" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C364" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D364" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <f t="shared" si="5"/>
+        <v>364</v>
+      </c>
+      <c r="B365" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C365" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D365" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="B366" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C366" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D366" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <f t="shared" si="5"/>
+        <v>366</v>
+      </c>
+      <c r="B367" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C367" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D367" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <f t="shared" si="5"/>
+        <v>367</v>
+      </c>
+      <c r="B368" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C368" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D368" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <f t="shared" si="5"/>
+        <v>368</v>
+      </c>
+      <c r="B369" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C369" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D369" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <f t="shared" si="5"/>
+        <v>369</v>
+      </c>
+      <c r="B370" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C370" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D370" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="B371" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C371" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D371" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <f t="shared" si="5"/>
+        <v>371</v>
+      </c>
+      <c r="B372" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C372" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D372" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+      <c r="B373" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C373" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D373" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <f t="shared" si="5"/>
+        <v>373</v>
+      </c>
+      <c r="B374" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C374" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D374" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
+      <c r="B375" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C375" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D375" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+      <c r="B376" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C376" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D376" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+      <c r="B377" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C377" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D377" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <f t="shared" si="5"/>
+        <v>377</v>
+      </c>
+      <c r="B378" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C378" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D378" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <f t="shared" si="5"/>
+        <v>378</v>
+      </c>
+      <c r="B379" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C379" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D379" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <f t="shared" si="5"/>
+        <v>379</v>
+      </c>
+      <c r="B380" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C380" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D380" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="B381" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C381" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D381" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+      <c r="B382" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C382" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D382" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <f t="shared" si="5"/>
+        <v>382</v>
+      </c>
+      <c r="B383" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C383" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D383" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+      <c r="B384" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C384" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D384" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+      <c r="B385" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C385" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D385" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <f t="shared" si="5"/>
+        <v>385</v>
+      </c>
+      <c r="B386" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C386" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D386" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">

--- a/featuresExtraction/featuresMatrix.xlsx
+++ b/featuresExtraction/featuresMatrix.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14080" windowHeight="16140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3780" yWindow="460" windowWidth="14080" windowHeight="16140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="composizione Matrice" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio 1" sheetId="3" r:id="rId2"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId3"/>
+    <sheet name="Foglio1" sheetId="4" r:id="rId3"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId4"/>
+    <sheet name="Foglio3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="76">
   <si>
     <t>RangeFeatures</t>
   </si>
@@ -219,12 +221,51 @@
   <si>
     <t>\</t>
   </si>
+  <si>
+    <t>Feature index</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Band Frequency</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>11, 14, 18, 22, 39, 45, 46, 58, 66, 67, 70, 71, 74, 82, 93, 106, 110, 115, 118, 119, 120, 122, 128, 136, 139, 143, 158, 161, 165, 169, 173, 192, 193, 201, 213, 214, 217, 218, 228, 236, 240, 244, 248, 256, 260, 262, 263, 272, 276, 284, 287, 288, 291, 292, 304, 312, 316, 320, 340, 354, 358</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Range Mean'</t>
+  </si>
+  <si>
+    <t>FC5</t>
+  </si>
+  <si>
+    <t>FC6</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Cz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +314,18 @@
       <color rgb="FF000000"/>
       <name val="Courier"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF454545"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="24">
@@ -670,7 +723,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -808,8 +861,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -887,8 +996,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="193">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
@@ -957,6 +1069,34 @@
     <cellStyle name="Collegamento ipertestuale" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="6" builtinId="9" hidden="1"/>
@@ -1025,6 +1165,34 @@
     <cellStyle name="Collegamento ipertestuale visitato" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1979,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:D83"/>
+    <sheetView topLeftCell="A378" workbookViewId="0">
+      <selection sqref="A1:D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1999,7 +2167,9 @@
         <v>1</v>
       </c>
       <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="F1" s="78" t="s">
+        <v>67</v>
+      </c>
       <c r="G1" s="72"/>
       <c r="L1" s="72"/>
       <c r="M1" s="72"/>
@@ -2113,8 +2283,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="F3" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>68</v>
+      </c>
       <c r="L3" s="74"/>
       <c r="M3" s="74"/>
       <c r="N3" s="74"/>
@@ -2424,7 +2601,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -7949,6 +8126,329 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="77">
+        <v>66</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="77">
+        <v>67</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="77">
+        <v>71</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="77">
+        <v>82</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="77">
+        <v>115</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="77">
+        <v>165</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="77">
+        <v>169</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="77">
+        <v>173</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="77">
+        <v>192</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="77">
+        <v>244</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="77">
+        <v>256</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="77">
+        <v>260</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="77">
+        <v>262</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="77">
+        <v>272</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="77">
+        <v>276</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="77">
+        <v>287</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="77">
+        <v>288</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="77">
+        <v>291</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="77">
+        <v>292</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="77">
+        <v>304</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="77">
+        <v>320</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="77">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF21"/>
   <sheetViews>
@@ -8432,5 +8932,5811 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D386"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="F369" sqref="F369"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="1">A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f>A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" ref="A131:A194" si="2">A130+1</f>
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>61</v>
+      </c>
+      <c r="D147" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>60</v>
+      </c>
+      <c r="C148" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C150" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C154" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B155" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B159" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C161" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C162" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C164" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C167" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C169" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C172" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C173" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C175" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C176" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C178" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C179" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C181" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C182" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C186" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C187" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C188" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" ref="A195:A258" si="3">A194+1</f>
+        <v>194</v>
+      </c>
+      <c r="B195" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C200" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C202" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C203" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C205" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C206" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C208" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B209" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C209" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B210" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C210" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B211" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C211" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C212" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C214" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="B215" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C216" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="B217" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C217" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="B218" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="B219" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C219" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="B220" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C220" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D220" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="B221" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C221" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D221" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="B222" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C222" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D222" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="B223" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C223" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="B224" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C224" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D224" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="B225" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C225" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="B226" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C226" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="B227" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C227" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="B228" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C228" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D228" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="B229" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C229" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="B230" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C230" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="B231" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="B232" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C232" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D232" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="B233" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D233" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="B234" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="B235" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="B236" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C236" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="B237" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D237" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="B238" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C238" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="B239" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C239" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
+      <c r="B240" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C240" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="B241" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C241" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="B242" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C242" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D242" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="B243" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C243" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D243" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="B244" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C244" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="B245" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C245" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="B246" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C246" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="B247" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C247" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
+      <c r="B248" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C248" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+      <c r="B249" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C249" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="B250" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C250" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="B251" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C251" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="B252" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C252" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="B253" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C253" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="B254" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C254" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="B255" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C255" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="B256" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C256" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="B257" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C257" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D257" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="B258" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C258" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <f t="shared" ref="A259:A322" si="4">A258+1</f>
+        <v>258</v>
+      </c>
+      <c r="B259" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C259" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="B260" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C260" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B261" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C261" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D261" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="B262" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C262" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D262" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="B263" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C263" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="B264" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C264" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="B265" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C265" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D265" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="B266" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C266" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="B267" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C267" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D267" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="B268" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="B269" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D269" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="B270" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B271" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C271" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="B272" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C272" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D272" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="B273" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C273" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D273" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="B274" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C274" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D274" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="B275" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C275" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D275" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="B276" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C276" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D276" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="B277" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C277" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="B278" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C278" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="B279" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D279" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="B280" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C280" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D280" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B281" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D281" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="B282" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C282" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="B283" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C283" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="B284" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C284" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="B285" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C285" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D285" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="B286" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C286" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D286" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="B287" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C287" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="B288" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C288" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D288" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="B289" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C289" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D289" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="B290" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C290" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D290" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="B291" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C291" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D291" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="B292" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C292" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D292" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <f>A292+1</f>
+        <v>292</v>
+      </c>
+      <c r="B293" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C293" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D293" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="B294" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C294" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D294" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="B295" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C295" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D295" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="B296" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C296" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D296" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+      <c r="B297" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C297" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D297" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="B298" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C298" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D298" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="B299" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C299" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D299" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="B300" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C300" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="B301" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C301" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="B302" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C302" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D302" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="B303" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C303" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D303" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="B304" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C304" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="B305" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C305" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D305" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="B306" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C306" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D306" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="B307" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C307" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D307" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="B308" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C308" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D308" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="B309" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C309" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D309" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="B310" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C310" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D310" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="B311" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C311" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D311" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="B312" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C312" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D312" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="B313" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C313" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D313" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="B314" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C314" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D314" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="B315" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C315" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D315" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="B316" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C316" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+      <c r="B317" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C317" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D317" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <f t="shared" si="4"/>
+        <v>317</v>
+      </c>
+      <c r="B318" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C318" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D318" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <f t="shared" si="4"/>
+        <v>318</v>
+      </c>
+      <c r="B319" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C319" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D319" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <f t="shared" si="4"/>
+        <v>319</v>
+      </c>
+      <c r="B320" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C320" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D320" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="B321" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C321" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D321" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <f t="shared" si="4"/>
+        <v>321</v>
+      </c>
+      <c r="B322" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C322" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D322" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <f t="shared" ref="A323:A386" si="5">A322+1</f>
+        <v>322</v>
+      </c>
+      <c r="B323" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C323" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D323" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <f t="shared" si="5"/>
+        <v>323</v>
+      </c>
+      <c r="B324" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C324" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D324" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+      <c r="B325" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C325" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D325" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+      <c r="B326" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C326" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D326" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+      <c r="B327" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C327" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D327" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+      <c r="B328" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C328" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D328" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <f t="shared" si="5"/>
+        <v>328</v>
+      </c>
+      <c r="B329" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C329" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D329" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+      <c r="B330" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C330" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D330" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="B331" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C331" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D331" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+      <c r="B332" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C332" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D332" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <f t="shared" si="5"/>
+        <v>332</v>
+      </c>
+      <c r="B333" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C333" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D333" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <f t="shared" si="5"/>
+        <v>333</v>
+      </c>
+      <c r="B334" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C334" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D334" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="B335" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C335" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D335" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="B336" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C336" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D336" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="B337" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C337" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D337" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+      <c r="B338" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C338" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D338" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <f t="shared" si="5"/>
+        <v>338</v>
+      </c>
+      <c r="B339" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C339" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D339" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <f t="shared" si="5"/>
+        <v>339</v>
+      </c>
+      <c r="B340" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C340" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D340" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="B341" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C341" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D341" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <f t="shared" si="5"/>
+        <v>341</v>
+      </c>
+      <c r="B342" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D342" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="B343" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C343" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="B344" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C344" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D344" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+      <c r="B345" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C345" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D345" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <f t="shared" si="5"/>
+        <v>345</v>
+      </c>
+      <c r="B346" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C346" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D346" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+      <c r="B347" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C347" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D347" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <f t="shared" si="5"/>
+        <v>347</v>
+      </c>
+      <c r="B348" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C348" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D348" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+      <c r="B349" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C349" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D349" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <f t="shared" si="5"/>
+        <v>349</v>
+      </c>
+      <c r="B350" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C350" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D350" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="B351" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C351" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D351" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+      <c r="B352" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C352" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D352" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+      <c r="B353" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C353" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D353" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <f t="shared" si="5"/>
+        <v>353</v>
+      </c>
+      <c r="B354" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C354" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D354" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="B355" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C355" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D355" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <f t="shared" si="5"/>
+        <v>355</v>
+      </c>
+      <c r="B356" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C356" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D356" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <f t="shared" si="5"/>
+        <v>356</v>
+      </c>
+      <c r="B357" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C357" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+      <c r="B358" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C358" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D358" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="B359" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C359" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D359" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+      <c r="B360" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C360" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D360" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="B361" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C361" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D361" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="B362" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C362" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D362" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="B363" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C363" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D363" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="B364" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C364" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D364" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <f t="shared" si="5"/>
+        <v>364</v>
+      </c>
+      <c r="B365" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C365" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D365" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="B366" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C366" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D366" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <f t="shared" si="5"/>
+        <v>366</v>
+      </c>
+      <c r="B367" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C367" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D367" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <f t="shared" si="5"/>
+        <v>367</v>
+      </c>
+      <c r="B368" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C368" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D368" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <f t="shared" si="5"/>
+        <v>368</v>
+      </c>
+      <c r="B369" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C369" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D369" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <f t="shared" si="5"/>
+        <v>369</v>
+      </c>
+      <c r="B370" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C370" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D370" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="B371" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C371" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D371" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <f t="shared" si="5"/>
+        <v>371</v>
+      </c>
+      <c r="B372" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C372" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D372" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+      <c r="B373" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C373" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D373" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <f t="shared" si="5"/>
+        <v>373</v>
+      </c>
+      <c r="B374" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C374" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D374" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
+      <c r="B375" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C375" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D375" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+      <c r="B376" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C376" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D376" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+      <c r="B377" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C377" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D377" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <f t="shared" si="5"/>
+        <v>377</v>
+      </c>
+      <c r="B378" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C378" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D378" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <f t="shared" si="5"/>
+        <v>378</v>
+      </c>
+      <c r="B379" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C379" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D379" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <f t="shared" si="5"/>
+        <v>379</v>
+      </c>
+      <c r="B380" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C380" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D380" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="B381" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C381" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D381" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+      <c r="B382" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C382" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D382" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <f t="shared" si="5"/>
+        <v>382</v>
+      </c>
+      <c r="B383" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C383" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D383" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+      <c r="B384" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C384" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D384" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+      <c r="B385" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C385" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D385" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <f t="shared" si="5"/>
+        <v>385</v>
+      </c>
+      <c r="B386" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C386" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D386" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>